--- a/数据整理/stocks/A股/上证主板/603305-旭升股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603305-旭升股份.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,79 +22,124 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
     <t>006511</t>
   </si>
   <si>
+    <t>007825</t>
+  </si>
+  <si>
+    <t>007826</t>
+  </si>
+  <si>
+    <t>008547</t>
+  </si>
+  <si>
+    <t>004222</t>
+  </si>
+  <si>
+    <t>004402</t>
+  </si>
+  <si>
     <t>006512</t>
   </si>
   <si>
-    <t>008547</t>
-  </si>
-  <si>
-    <t>007825</t>
-  </si>
-  <si>
-    <t>007826</t>
-  </si>
-  <si>
-    <t>004222</t>
-  </si>
-  <si>
-    <t>004402</t>
-  </si>
-  <si>
     <t>博道卓远混合A</t>
   </si>
   <si>
+    <t>博道志远混合A</t>
+  </si>
+  <si>
+    <t>博道志远混合C</t>
+  </si>
+  <si>
+    <t>博道安远6个月定期开放混合</t>
+  </si>
+  <si>
+    <t>金信民旺债券A</t>
+  </si>
+  <si>
+    <t>金信民旺债券C</t>
+  </si>
+  <si>
     <t>博道卓远混合C</t>
   </si>
   <si>
-    <t>博道安远6个月定期开放混合</t>
-  </si>
-  <si>
-    <t>博道志远混合A</t>
-  </si>
-  <si>
-    <t>博道志远混合C</t>
-  </si>
-  <si>
-    <t>金信民旺债券A</t>
-  </si>
-  <si>
-    <t>金信民旺债券C</t>
+    <t>3.38</t>
+  </si>
+  <si>
+    <t>1.93</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>0.09</t>
   </si>
   <si>
     <t>85.50</t>
   </si>
   <si>
+    <t>83.72</t>
+  </si>
+  <si>
     <t>21.60</t>
   </si>
   <si>
-    <t>83.72</t>
-  </si>
-  <si>
     <t>50.33</t>
   </si>
   <si>
     <t>4.60</t>
   </si>
   <si>
+    <t>4.59</t>
+  </si>
+  <si>
     <t>3.41</t>
   </si>
   <si>
-    <t>4.59</t>
-  </si>
-  <si>
     <t>6.20</t>
+  </si>
+  <si>
+    <t>0.1555</t>
+  </si>
+  <si>
+    <t>0.0886</t>
+  </si>
+  <si>
+    <t>0.0390</t>
+  </si>
+  <si>
+    <t>0.0184</t>
+  </si>
+  <si>
+    <t>0.0180</t>
+  </si>
+  <si>
+    <t>0.0056</t>
+  </si>
+  <si>
+    <t>0.0041</t>
   </si>
 </sst>
 </file>
@@ -452,13 +497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,145 +519,193 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603305-旭升股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603305-旭升股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -971,4 +972,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603305-旭升股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603305-旭升股份.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -980,7 +981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -991,17 +992,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1011,14 +1032,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.06</v>
+          <t>013450</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>37.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0430</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1027,13 +1070,347 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6083</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4990</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013451</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>37.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4910</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003594</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>44.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1836</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>080008</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>46.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001834</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>46.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003595</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>44.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.33</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603305-旭升股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603305-旭升股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1341,7 +1342,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,17 +1353,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1372,14 +1393,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.94</v>
+          <t>006836</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢惠泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>49.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1388,14 +1431,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.06</v>
+          <t>003594</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>43.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1404,13 +1469,211 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>080008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>40.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001834</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>40.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003595</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>43.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.33</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603305-旭升股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603305-旭升股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1588,7 +1589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1599,17 +1600,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1619,14 +1640,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.18</v>
+          <t>200015</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城优化升级混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6440</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1635,14 +1678,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.94</v>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5856</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1651,14 +1716,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.06</v>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4530</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1667,13 +1754,721 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>871003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发资管价值增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3313</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013274</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城优化升级混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2592</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011093</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>永赢宏泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>49.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006836</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>永赢惠泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>49.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014179</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银证券远见价值混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>080008</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>49.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003594</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>54.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001834</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>49.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001731</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001732</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014180</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银证券远见价值混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000926</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>30.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003595</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>54.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004676</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>30.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.33</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603305-旭升股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603305-旭升股份.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D2" t="n">
-        <v>2.92</v>
+        <v>14.81</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>0.18</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>2.94</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -566,6 +583,1998 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.9200</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>590002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮核心成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8086</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>200015</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城优化升级混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4067</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>590001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮核心优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6494</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013451</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6055</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013450</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5960</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5427</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013274</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城优化升级混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5364</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4854</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4685</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3828</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>871003</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发资管价值增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3236</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>590005</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中邮核心主题混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2714</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2503</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2419</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003601</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>32.45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2227</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2034</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011455</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>75.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1881</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>58.88</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000030</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城核心优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010268</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>太平睿安混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>39.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004434</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014560</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方汽车产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014561</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方汽车产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>016059</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>73.70</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015276</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时均衡回报混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>59.64</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011456</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>75.87</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002595</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时工业4.0主题股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004435</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010666</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010665</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000649</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011874</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>58.88</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003602</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>32.45</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011761</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>平安鑫瑞混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>23.80</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011875</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001709</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华富物联世界灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>015277</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时均衡回报混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>59.64</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011762</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>平安鑫瑞混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>23.80</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>015694</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>瑞达策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>67.87</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010269</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>太平睿安混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>39.63</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>016061</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>80.58</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>015695</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>瑞达策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>67.87</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1343,7 +3352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1589,7 +3598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1949,7 +3958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2155,7 +4164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
